--- a/2025-03-03_4o-mini_feedback_sheets/overall_spec/Musculoskeletal chest pain_spec_overall.xlsx
+++ b/2025-03-03_4o-mini_feedback_sheets/overall_spec/Musculoskeletal chest pain_spec_overall.xlsx
@@ -462,110 +462,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Pain is reproducible with arm movements</t>
+          <t>Pain is reproducible with arm movements is present.</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>This finding is characteristic of musculoskeletal pain, as it suggests that the pain is related to musculoskeletal structures and can be elicited by movement.</t>
+          <t>Musculoskeletal chest pain is often reproducible with physical movements, such as arm movements, which suggests a musculoskeletal origin.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Current heartburn</t>
+          <t>Pain relieved with regurgitation is present.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Heartburn is more indicative of gastrointestinal issues rather than musculoskeletal pain, suggesting an esophageal or gastric origin.</t>
+          <t>Pain relief with regurgitation suggests a gastrointestinal cause, such as GERD, rather than musculoskeletal.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Tightness (character of pain)</t>
+          <t>Pain when swallowing (aka odynophagia) is present.</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Tightness is a common descriptor of musculoskeletal pain, indicating a muscular or skeletal origin rather than visceral.</t>
+          <t>Odynophagia can be associated with musculoskeletal issues, especially if related to esophageal muscle spasms or inflammation.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Current reflux</t>
+          <t>Current heartburn is present.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Reflux symptoms are typically associated with gastrointestinal disorders, which are not consistent with musculoskeletal chest pain.</t>
+          <t>Heartburn is more indicative of gastrointestinal issues like GERD, not musculoskeletal pain.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Pain worse when lying down (positional)</t>
+          <t>Pain worse when lying down (positional) is present.</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Positional pain can indicate musculoskeletal issues, as certain positions may exacerbate strain on muscles or joints.</t>
+          <t>Positional pain is characteristic of musculoskeletal issues, as changes in position can affect muscle tension and pain.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Difficulty swallowing liquids</t>
+          <t>Current reflux is present.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Dysphagia (difficulty swallowing) is more commonly associated with esophageal conditions rather than musculoskeletal pain.</t>
+          <t>Reflux symptoms are typically associated with gastrointestinal conditions rather than musculoskeletal pain.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Onset of chest pain associated with eating food</t>
+          <t>Tightness (character of pain) is present.</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>While this could suggest gastrointestinal issues, it can also indicate musculoskeletal pain related to the mechanics of eating and posture.</t>
+          <t>A sensation of tightness can be associated with muscle strain or tension, common in musculoskeletal pain.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Difficulty swallowing solids</t>
+          <t>Difficulty swallowing liquids is present.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Similar to liquids, difficulty swallowing solids points towards a potential esophageal issue rather than a musculoskeletal cause.</t>
+          <t>Dysphagia, especially with liquids, is more suggestive of esophageal or neurological issues than musculoskeletal pain.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Reports pain location is behind sternum, middle of chest</t>
+          <t>Reports pain location is behind sternum, middle of chest is present.</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Pain located in the middle of the chest can be associated with musculoskeletal pain, especially if it is reproducible.</t>
+          <t>Musculoskeletal chest pain often presents with pain localized to the sternum or chest wall.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Weight loss reported</t>
+          <t>Weight loss reported is present.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Unintentional weight loss can indicate a serious underlying condition, often gastrointestinal, which is not typical for musculoskeletal pain.</t>
+          <t>Unintentional weight loss is often associated with systemic or gastrointestinal conditions rather than musculoskeletal pain.</t>
         </is>
       </c>
     </row>
@@ -613,110 +613,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Female is present.</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Musculoskeletal chest pain can be more prevalent in females, particularly in middle age, due to hormonal factors and differences in pain perception.</t>
+          <t>Musculoskeletal chest pain can be more common in females due to conditions like costochondritis.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Absence of prior myocardial infarction</t>
+          <t>Absence of obesity.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>While the absence of a prior myocardial infarction does not rule out musculoskeletal chest pain, it is a common risk factor for cardiac-related chest pain, making its absence less supportive of musculoskeletal pain.</t>
+          <t>Obesity is a risk factor for musculoskeletal pain due to increased strain on the body; its absence reduces this risk.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Middle age</t>
+          <t>Middle age is present.</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Musculoskeletal chest pain is more common in middle-aged individuals, as they may experience more wear and tear on musculoskeletal structures.</t>
+          <t>Musculoskeletal chest pain is often seen in middle-aged individuals due to lifestyle factors and physical activity.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Absence of hypertension</t>
+          <t>Absence of type 2 diabetes.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Hypertension is a significant risk factor for cardiovascular disease; its absence may suggest a lower likelihood of cardiac causes of chest pain, but it does not directly support musculoskeletal pain.</t>
+          <t>Diabetes can contribute to musculoskeletal pain through neuropathy and other complications; its absence reduces this risk.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Takes amlodipine</t>
+          <t>Takes amlodipine is present.</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Amlodipine is a medication used for hypertension and angina; while it does not directly indicate musculoskeletal pain, its use in a patient without other cardiovascular risk factors may suggest a lower likelihood of cardiac causes of chest pain.</t>
+          <t>Amlodipine is used for hypertension, which can be associated with musculoskeletal pain due to medication side effects or related conditions.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Absence of diabetes</t>
+          <t>Absence of previously diagnosed Coronary Artery Disease.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Diabetes is a risk factor for cardiovascular disease; its absence does not directly indicate musculoskeletal pain but suggests a lower likelihood of cardiac causes.</t>
+          <t>While CAD is a cardiac condition, its absence might suggest a lower likelihood of chest pain being misattributed to musculoskeletal causes.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Absence of coronary artery disease</t>
+          <t>Absence of prior myocardial infarction.</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>The absence of coronary artery disease, a common cause of chest pain, supports the likelihood of musculoskeletal chest pain as an alternative diagnosis.</t>
+          <t>The absence of a history of myocardial infarction reduces the likelihood of cardiac-related chest pain, making musculoskeletal causes more likely.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Absence of peripheral artery disease</t>
+          <t>Absence of prior stroke.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>The absence of peripheral artery disease, which can cause chest pain, does not directly support musculoskeletal pain but indicates a lower likelihood of vascular causes.</t>
+          <t>A history of stroke can be associated with musculoskeletal pain due to neurological deficits; its absence reduces this risk.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Absence of obesity</t>
+          <t>Absence of diagnosed hypertension.</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Obesity is a risk factor for various cardiovascular conditions; its absence may suggest a lower likelihood of cardiac-related chest pain, favoring musculoskeletal causes.</t>
+          <t>While hypertension can cause chest pain, its absence suggests non-cardiac causes like musculoskeletal pain.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Absence of hyperlipidemia</t>
+          <t>Absence of recent medication changes.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Hyperlipidemia is a risk factor for cardiovascular disease; its absence may suggest a lower likelihood of cardiac-related chest pain, but it does not directly support musculoskeletal pain.</t>
+          <t>Recent medication changes can lead to musculoskeletal pain as a side effect; their absence reduces this risk.</t>
         </is>
       </c>
     </row>
@@ -769,17 +769,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Social stress can contribute to musculoskeletal pain, including chest pain, as it may lead to muscle tension and discomfort.</t>
+          <t>Social stress can lead to muscle tension and pain, which is consistent with musculoskeletal chest pain.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Family history of cancer is absent.</t>
+          <t>Family history of myocardial infarction in father is present.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>The absence of a family history of cancer may reduce the likelihood of serious underlying conditions that could cause chest pain, suggesting a lower likelihood of musculoskeletal chest pain.</t>
+          <t>A family history of myocardial infarction increases the risk of cardiac causes of chest pain, which could argue against a musculoskeletal origin.</t>
         </is>
       </c>
     </row>
@@ -791,17 +791,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Prior tobacco use may be associated with musculoskeletal issues, including chronic pain conditions, which can manifest as chest pain.</t>
+          <t>While not directly linked, prior tobacco use can contribute to chronic cough or muscle strain, which may lead to musculoskeletal chest pain.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Recent Travel is absent.</t>
+          <t>Current tobacco use is absent.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Absence of recent travel may indicate a lower likelihood of conditions such as pulmonary embolism or other travel-related issues that could cause chest pain, which may be confused with musculoskeletal pain.</t>
+          <t>The absence of current tobacco use reduces the likelihood of chronic cough or muscle strain related to smoking, which could lead to musculoskeletal chest pain.</t>
         </is>
       </c>
     </row>
@@ -813,17 +813,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>While this finding suggests a cardiovascular risk, it may also indicate a familial tendency towards musculoskeletal issues, as some conditions can have overlapping symptoms.</t>
+          <t>This finding is more relevant to cardiac issues, but the absence of other cardiac risk factors may indirectly support a non-cardiac cause like musculoskeletal pain.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Recent medical procedure is absent.</t>
+          <t>Recent Travel is absent.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>The absence of recent medical procedures reduces the likelihood of post-procedural pain, which can sometimes be mistaken for musculoskeletal chest pain.</t>
+          <t>The absence of recent travel reduces the likelihood of travel-related stress or physical strain, which could contribute to musculoskeletal pain.</t>
         </is>
       </c>
     </row>
@@ -835,17 +835,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>The absence of a family history of rheumatoid arthritis may suggest a lower likelihood of inflammatory causes of chest pain, supporting a musculoskeletal origin.</t>
+          <t>The absence of a family history of Rheumatoid Arthritis reduces the likelihood of inflammatory causes of chest pain, indirectly supporting musculoskeletal causes.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Gestational complications with prior pregnancy is absent.</t>
+          <t>Recent medical procedure is absent.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>The absence of gestational complications may suggest a lower likelihood of related musculoskeletal issues, which could contribute to chest pain.</t>
+          <t>The absence of recent medical procedures reduces the likelihood of post-procedural musculoskeletal pain.</t>
         </is>
       </c>
     </row>
@@ -857,17 +857,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Absence of alcohol use may indicate a lower likelihood of alcohol-related musculoskeletal pain, supporting the diagnosis of musculoskeletal chest pain.</t>
+          <t>The absence of alcohol use reduces the risk of certain conditions that can mimic musculoskeletal pain, such as pancreatitis.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Current tobacco use is absent.</t>
+          <t>Gestational complications with prior pregnancy is absent.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>The absence of current tobacco use may indicate a lower risk of chronic respiratory or cardiovascular issues that could present as chest pain, thus supporting the absence of musculoskeletal chest pain.</t>
+          <t>While not directly related, the absence of gestational complications reduces the likelihood of certain stressors that could contribute to musculoskeletal pain.</t>
         </is>
       </c>
     </row>
@@ -920,17 +920,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Telangiectasias can be associated with connective tissue diseases, which may present with musculoskeletal pain.</t>
+          <t>Telangiectasias can be associated with connective tissue disorders, which can sometimes present with musculoskeletal chest pain.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Raynaud's phenomenon on exam is absent.</t>
+          <t>Absence of joint swelling observed.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>The absence of Raynaud's phenomenon suggests that conditions like systemic sclerosis, which can cause musculoskeletal pain, are less likely.</t>
+          <t>Joint swelling is often associated with musculoskeletal conditions, so its absence argues against musculoskeletal chest pain.</t>
         </is>
       </c>
     </row>
@@ -942,83 +942,83 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Weight loss can indicate an underlying condition that may also present with musculoskeletal pain.</t>
+          <t>Weight loss can be associated with chronic pain conditions, including musculoskeletal issues.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Hoarse voice observed is absent.</t>
+          <t>Absence of enlargement of knuckles, finger deformities, or deviation of fingers.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>The absence of a hoarse voice makes it less likely that the chest pain is related to a systemic or inflammatory condition affecting the throat or lungs.</t>
+          <t>These findings can be associated with musculoskeletal disorders, so their absence argues against musculoskeletal chest pain.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Cough observed is absent.</t>
+          <t>Absence of high blood pressure when checked.</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>The absence of cough suggests that the chest pain is less likely to be of pulmonary origin, supporting musculoskeletal causes.</t>
+          <t>Musculoskeletal chest pain is not typically associated with high blood pressure, so its absence does not contradict the diagnosis.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Epigastric pain on palpation is absent.</t>
+          <t>Absence of rheumatoid nodules.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>The absence of epigastric pain suggests that gastrointestinal causes of chest pain are less likely, which could otherwise mimic musculoskeletal pain.</t>
+          <t>Rheumatoid nodules are associated with rheumatoid arthritis, which can cause musculoskeletal chest pain, so their absence argues against it.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Joint swelling observed is absent.</t>
+          <t>Absence of obesity by vital signs.</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>The absence of joint swelling makes inflammatory or systemic causes less likely, favoring musculoskeletal pain.</t>
+          <t>Obesity can exacerbate other causes of chest pain, so its absence may support a musculoskeletal origin.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Hand thickening observed is absent.</t>
+          <t>Absence of hand thickening observed.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>The absence of hand thickening makes conditions like scleroderma less likely, which can present with musculoskeletal symptoms.</t>
+          <t>Hand thickening can be associated with scleroderma, which can cause musculoskeletal chest pain, so its absence argues against it.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Rheumatoid nodules is absent.</t>
+          <t>Absence of neck masses or fullness observed.</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>The absence of rheumatoid nodules suggests that rheumatoid arthritis is less likely, which can be associated with musculoskeletal pain.</t>
+          <t>Neck masses or fullness could suggest other causes of chest pain, so their absence supports a musculoskeletal cause.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Finger ulcers observed is absent.</t>
+          <t>Absence of finger ulcers observed.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>The absence of finger ulcers suggests that vascular or connective tissue diseases are less likely, which could otherwise contribute to musculoskeletal pain.</t>
+          <t>Finger ulcers can be associated with connective tissue disorders, which can cause musculoskeletal chest pain, so their absence argues against it.</t>
         </is>
       </c>
     </row>
@@ -1066,110 +1066,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Hyperlipidemia on lab testing is present</t>
+          <t>Hyperlipidemia on lab testing is present.</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hyperlipidemia can be associated with musculoskeletal pain due to potential inflammatory processes or metabolic syndrome, which may contribute to musculoskeletal chest pain.</t>
+          <t>Hyperlipidemia is not directly related to musculoskeletal chest pain, but its presence does not rule out musculoskeletal causes.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Hyperlipidemia on lab testing is present</t>
+          <t>Hyperlipidemia on lab testing is present.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Hyperlipidemia is more commonly associated with cardiovascular diseases, which could lead to chest pain, thus arguing against musculoskeletal chest pain.</t>
+          <t>Hyperlipidemia is a risk factor for cardiovascular disease, which can be a cause of chest pain, potentially against a musculoskeletal diagnosis.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ANA strong positive is absent</t>
+          <t>ANA strong positive is absent.</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>The absence of a strong positive ANA (Antinuclear Antibody) test reduces the likelihood of autoimmune conditions that could cause chest pain, thus supporting the diagnosis of musculoskeletal chest pain.</t>
+          <t>The absence of a strong positive ANA test reduces the likelihood of autoimmune causes of chest pain, which can indirectly support a musculoskeletal origin.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>ANA strong positive is absent</t>
+          <t>ANA strong positive is absent.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>While the absence of a strong positive ANA reduces the likelihood of autoimmune conditions, it does not specifically support musculoskeletal chest pain, as other conditions could still be present.</t>
+          <t>While the absence of a strong positive ANA does not directly argue against musculoskeletal chest pain, it does not provide strong support for it either.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MBS shows aspiration is absent</t>
+          <t>MBS shows aspiration is absent.</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>The absence of aspiration on MBS (Modified Barium Swallow) suggests that there are no swallowing issues contributing to chest pain, which supports musculoskeletal causes.</t>
+          <t>The absence of aspiration on MBS suggests that the chest pain is less likely to be due to esophageal or swallowing issues, which can support a musculoskeletal cause.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>MBS shows aspiration is absent</t>
+          <t>MBS shows aspiration is absent.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>The absence of aspiration does not provide direct evidence for musculoskeletal chest pain, as other non-musculoskeletal causes of chest pain may still exist.</t>
+          <t>The absence of aspiration does not directly argue against musculoskeletal chest pain, but it does not support it either.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CT shows ILD is absent</t>
+          <t>CT shows ILD is absent.</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>The absence of interstitial lung disease (ILD) on CT (Computed Tomography) indicates that lung pathology is unlikely, which supports musculoskeletal chest pain as a diagnosis.</t>
+          <t>The absence of interstitial lung disease on CT reduces the likelihood of pulmonary causes of chest pain, indirectly supporting a musculoskeletal cause.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CT shows ILD is absent</t>
+          <t>CT shows ILD is absent.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>The absence of ILD does not rule out other potential causes of chest pain, including musculoskeletal issues, but does not strongly support the diagnosis either.</t>
+          <t>The absence of interstitial lung disease does not directly argue against musculoskeletal chest pain, but it does not support it either.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CXR shows widened mediastinum is absent</t>
+          <t>CXR shows widened mediastinum is absent.</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>The absence of a widened mediastinum on CXR (Chest X-Ray) suggests that there are no significant cardiovascular or thoracic pathologies, supporting musculoskeletal chest pain.</t>
+          <t>The absence of a widened mediastinum on CXR reduces the likelihood of serious cardiovascular causes, indirectly supporting a musculoskeletal cause.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CXR shows widened mediastinum is absent</t>
+          <t>CXR shows widened mediastinum is absent.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>The absence of a widened mediastinum does not specifically indicate musculoskeletal chest pain, as other causes of chest pain may still be present.</t>
+          <t>The absence of a widened mediastinum does not directly argue against musculoskeletal chest pain, but it does not support it either.</t>
         </is>
       </c>
     </row>
